--- a/data/trans_dic/P15_4-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P15_4-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q11"/>
+  <dimension ref="A1:Q12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -537,7 +538,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19</t>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -685,17 +686,17 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>7,42%</t>
+          <t>7,0%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>25,4%</t>
+          <t>25,78%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>35,28%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -710,17 +711,17 @@
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>24,56%</t>
+          <t>24,48%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>34,01%</t>
+          <t>34,17%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
@@ -735,17 +736,17 @@
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>6,73%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>24,96%</t>
+          <t>25,09%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>34,61%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -763,77 +764,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>12,2; 18,05</t>
+          <t>12,13; 18,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,47; 10,21</t>
+          <t>5,09; 9,11</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>22,06; 29,1</t>
+          <t>21,97; 29,55</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>31,22; 39,0</t>
+          <t>31,7; 39,93</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>39,61; 47,12</t>
+          <t>39,64; 47,52</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,57; 16,55</t>
+          <t>11,48; 16,25</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,8; 8,38</t>
+          <t>4,87; 8,62</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>21,37; 27,66</t>
+          <t>21,77; 27,36</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>30,22; 37,31</t>
+          <t>30,85; 37,52</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>35,88; 43,11</t>
+          <t>36,2; 43,3</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>12,68; 16,51</t>
+          <t>12,73; 16,42</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>5,53; 8,48</t>
+          <t>5,41; 8,13</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>22,8; 27,46</t>
+          <t>22,8; 27,62</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>31,85; 37,29</t>
+          <t>32,33; 37,42</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
         <is>
-          <t>38,78; 44,03</t>
+          <t>38,93; 44,06</t>
         </is>
       </c>
     </row>
@@ -855,22 +856,22 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>7,15%</t>
+          <t>7,24%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>26,95%</t>
+          <t>27,54%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>36,47%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>40,36%</t>
+          <t>40,38%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -880,22 +881,22 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>2,74%</t>
+          <t>2,85%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>23,78%</t>
+          <t>23,6%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>33,26%</t>
+          <t>33,23%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>38,86%</t>
+          <t>38,87%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
@@ -905,22 +906,22 @@
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>4,93%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>25,37%</t>
+          <t>25,57%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>34,86%</t>
+          <t>35,08%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>39,66%</t>
         </is>
       </c>
     </row>
@@ -933,77 +934,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>8,64; 13,78</t>
+          <t>8,72; 13,9</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>5,04; 9,7</t>
+          <t>5,02; 9,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>23,17; 30,84</t>
+          <t>23,68; 32,15</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>31,96; 40,96</t>
+          <t>32,17; 41,79</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>33,94; 48,21</t>
+          <t>33,59; 48,04</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>7,88; 12,46</t>
+          <t>7,51; 12,05</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>1,62; 4,53</t>
+          <t>1,72; 4,72</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>20,08; 27,36</t>
+          <t>20,2; 27,29</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>29,79; 37,31</t>
+          <t>29,46; 37,05</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>32,51; 45,27</t>
+          <t>32,44; 45,83</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>8,83; 12,27</t>
+          <t>8,94; 12,29</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>3,69; 6,43</t>
+          <t>3,75; 6,48</t>
         </is>
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>22,98; 28,25</t>
+          <t>22,94; 28,36</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>31,84; 37,8</t>
+          <t>32,13; 38,23</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
         <is>
-          <t>34,95; 44,79</t>
+          <t>35,4; 45,74</t>
         </is>
       </c>
     </row>
@@ -1020,22 +1021,22 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,57%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>4,91%</t>
+          <t>5,3%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>28,45%</t>
+          <t>28,68%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>35,5%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1050,17 +1051,17 @@
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>8,93%</t>
+          <t>6,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>28,43%</t>
+          <t>28,2%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>33,84%</t>
+          <t>33,25%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
@@ -1075,7 +1076,7 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>6,89%</t>
+          <t>6,02%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
@@ -1085,7 +1086,7 @@
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>34,68%</t>
+          <t>34,31%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1103,22 +1104,22 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>7,88; 19,34</t>
+          <t>7,9; 19,32</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2,17; 10,57</t>
+          <t>2,3; 10,68</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,33; 37,7</t>
+          <t>20,99; 36,6</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>27,15; 44,52</t>
+          <t>26,64; 44,05</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -1128,22 +1129,22 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>7,32; 17,05</t>
+          <t>7,72; 16,79</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>4,31; 19,43</t>
+          <t>3,25; 12,27</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>22,07; 35,38</t>
+          <t>21,84; 35,75</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>27,11; 41,48</t>
+          <t>26,31; 40,62</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
@@ -1153,22 +1154,22 @@
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>9,02; 16,52</t>
+          <t>8,7; 16,2</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>4,02; 12,54</t>
+          <t>3,46; 9,24</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>23,44; 34,33</t>
+          <t>23,54; 34,37</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>29,37; 41,01</t>
+          <t>28,3; 40,11</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1195,17 +1196,17 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>7,0%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>26,4%</t>
+          <t>26,84%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>36,15%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -1220,12 +1221,12 @@
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>5,12%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>24,71%</t>
+          <t>24,56%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
@@ -1235,7 +1236,7 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>39,48%</t>
+          <t>39,49%</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
@@ -1245,17 +1246,17 @@
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>6,12%</t>
+          <t>5,98%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>25,53%</t>
+          <t>25,67%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>34,72%</t>
+          <t>34,9%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1273,77 +1274,84 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,33; 15,13</t>
+          <t>11,32; 15,09</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,64; 8,7</t>
+          <t>5,5; 8,32</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>23,9; 28,93</t>
+          <t>24,34; 29,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>33,0; 38,7</t>
+          <t>33,2; 38,75</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>39,37; 46,3</t>
+          <t>39,13; 46,22</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>10,53; 13,55</t>
+          <t>10,53; 13,7</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,05; 6,79</t>
+          <t>4,14; 6,4</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,71; 27,16</t>
+          <t>22,55; 26,91</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>31,04; 36,09</t>
+          <t>31,43; 36,2</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>36,22; 42,53</t>
+          <t>36,43; 42,66</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>11,32; 13,72</t>
+          <t>11,38; 13,75</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>5,26; 7,26</t>
+          <t>5,11; 6,9</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>23,94; 27,37</t>
+          <t>23,96; 27,3</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>32,89; 36,56</t>
+          <t>32,98; 36,77</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
         <is>
-          <t>38,57; 43,03</t>
+          <t>38,71; 43,56</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1360,4 +1368,1207 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con amigos, compañeros de trabajo/estudios, vecinos no convivientes con COVID-19 (tasa de respuesta: 100,0%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>101.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>262.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>303.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>114.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>218.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>309.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>355.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>93.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>401.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>571.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>658.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>242857</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>115609</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>424680</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>587440</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>99246</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>249343</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>117531</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>447644</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>621374</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>94343</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>492200</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>233140</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>872324</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>1208813</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>193588</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>199016; 298683</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>84172; 150543</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>361903; 486860</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>521482; 656866</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>90962; 109041</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>205608; 291073</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>88047; 155924</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>398097; 500448</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>560987; 682454</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>86120; 103001</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>436778; 563428</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>187256; 281576</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>792765; 960270</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>1119939; 1296100</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>181942; 205931</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>67.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>197.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>156.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>226.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>98.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>131.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>53.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>306.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>423.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>185.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>153780</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>99511</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>379768</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>510127</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>29190</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>136504</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>39708</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>324274</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>459248</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>25482</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>290284</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>139219</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>704042</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>969375</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>54672</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>120889; 192694</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>68952; 131563</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>326555; 443394</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>444458; 577370</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>24285; 34729</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>105828; 169929</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>23898; 65640</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>277613; 375021</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>407232; 512049</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>21266; 30044</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>249939; 343814</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>103830; 179270</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>631601; 780895</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>887846; 1056558</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>48796; 63058</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>105.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>53174</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>22402</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>121255</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>149388</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>48258</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>27809</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>115491</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>136964</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>101431</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>50211</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>236746</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>286352</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>33393; 81703</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>9723; 45138</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>88753; 154761</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>112631; 186263</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>31791; 69154</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>13402; 50552</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>89434; 146432</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>108358; 167329</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>72661; 135225</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>28910; 77155</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>195985; 286097</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>236239; 334803</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>187.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>89.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>374.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>506.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>390.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>200.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>422.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>593.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>453.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>387.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>796.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>1099.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>843.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>449810</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>237522</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>925703</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>1246955</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>128436</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>434105</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>185049</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>887409</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>1217586</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>119824</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>883915</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>422571</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1813112</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>2464541</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>248260</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>390488; 520387</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>189615; 286846</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>839567; 1022118</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>1145243; 1336658</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>118092; 139471</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>380367; 495010</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>149660; 231259</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>814523; 972049</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>1135429; 1307623</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>110545; 129444</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>803506; 971404</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>360804; 487231</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1692398; 1927812</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>2329455; 2596856</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>234302; 263617</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="M1:Q1"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>